--- a/出席率変化の集計/fils/出席率_大橋校（３年：北村） (5).xlsx
+++ b/出席率変化の集計/fils/出席率_大橋校（３年：北村） (5).xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18106\Documents\UiPath\ファイルの転機\fils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18106\Documents\UiPath\出席率変化の集計\fils\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,15 +13,16 @@
   </bookViews>
   <sheets>
     <sheet name="3年アスリート_第▼週" sheetId="114" r:id="rId1"/>
-    <sheet name="3年アスリート_8月" sheetId="116" r:id="rId2"/>
-    <sheet name="3年アスリート_９月" sheetId="117" r:id="rId3"/>
+    <sheet name="2年情報メディア_8月 " sheetId="118" r:id="rId2"/>
+    <sheet name="3年アスリート_8月" sheetId="116" r:id="rId3"/>
+    <sheet name="3年アスリート_９月" sheetId="117" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'3年アスリート_8月'!$A$8:$U$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3年アスリート_９月'!$A$8:$U$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3年アスリート_8月'!$A$8:$U$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'3年アスリート_９月'!$A$8:$U$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3年アスリート_第▼週'!$A$8:$X$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'3年アスリート_8月'!$B$1:$T$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'3年アスリート_９月'!$B$1:$T$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'3年アスリート_8月'!$B$1:$T$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'3年アスリート_９月'!$B$1:$T$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'3年アスリート_第▼週'!$B$1:$W$40</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="60">
   <si>
     <t>学番</t>
     <phoneticPr fontId="3"/>
@@ -289,6 +290,9 @@
   <si>
     <t>　　↓</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>出席率時</t>
   </si>
 </sst>
 </file>
@@ -3648,12 +3652,232 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C4">
+        <v>0.99702380952380998</v>
+      </c>
+      <c r="G4">
+        <v>0.99702380952380998</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C6">
+        <v>0.97619047619047605</v>
+      </c>
+      <c r="G6">
+        <v>0.97619047619047605</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C8">
+        <v>0.98214285714285698</v>
+      </c>
+      <c r="G8">
+        <v>0.98214285714285698</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C10">
+        <v>0.96428571428571397</v>
+      </c>
+      <c r="G10">
+        <v>0.96428571428571397</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C11">
+        <v>0.96428571428571397</v>
+      </c>
+      <c r="G11">
+        <v>0.96428571428571397</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C13">
+        <v>0.98214285714285698</v>
+      </c>
+      <c r="G13">
+        <v>0.98214285714285698</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C16">
+        <v>0.98214285714285698</v>
+      </c>
+      <c r="G16">
+        <v>0.98214285714285698</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C20">
+        <v>0.98214285714285698</v>
+      </c>
+      <c r="G20">
+        <v>0.98214285714285698</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G21">
+        <v>0.99702380952380998</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G25">
+        <v>0.91666666666666696</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G26">
+        <v>0.99107142857142905</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G29">
+        <v>0.98214285714285698</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
@@ -4922,7 +5146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
